--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>5.162166313064445</v>
+        <v>9.067131414194446</v>
       </c>
       <c r="R2">
-        <v>46.45949681758</v>
+        <v>81.60418272775001</v>
       </c>
       <c r="S2">
-        <v>0.003891927949890126</v>
+        <v>0.007842499986436793</v>
       </c>
       <c r="T2">
-        <v>0.003891927949890125</v>
+        <v>0.007842499986436793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
-        <v>27.28141831829111</v>
+        <v>33.86027894623778</v>
       </c>
       <c r="R3">
-        <v>245.53276486462</v>
+        <v>304.74251051614</v>
       </c>
       <c r="S3">
-        <v>0.02056836375009604</v>
+        <v>0.02928701758539673</v>
       </c>
       <c r="T3">
-        <v>0.02056836375009604</v>
+        <v>0.02928701758539672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.856696666666667</v>
+      </c>
+      <c r="H4">
+        <v>8.57009</v>
+      </c>
+      <c r="I4">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="J4">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.301656666666667</v>
-      </c>
-      <c r="H4">
-        <v>6.90497</v>
-      </c>
-      <c r="I4">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="J4">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>7.043093951004445</v>
+        <v>1.362773813582222</v>
       </c>
       <c r="R4">
-        <v>63.38784555904001</v>
+        <v>12.26496432224</v>
       </c>
       <c r="S4">
-        <v>0.005310021517951445</v>
+        <v>0.001178713876122255</v>
       </c>
       <c r="T4">
-        <v>0.005310021517951444</v>
+        <v>0.001178713876122254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>15.36333805817889</v>
+        <v>20.78571821857444</v>
       </c>
       <c r="R5">
-        <v>138.27004252361</v>
+        <v>187.07146396717</v>
       </c>
       <c r="S5">
-        <v>0.0115829287872637</v>
+        <v>0.01797834258716671</v>
       </c>
       <c r="T5">
-        <v>0.0115829287872637</v>
+        <v>0.01797834258716671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.856696666666667</v>
+      </c>
+      <c r="H6">
+        <v>8.57009</v>
+      </c>
+      <c r="I6">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="J6">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>2.301656666666667</v>
-      </c>
-      <c r="H6">
-        <v>6.90497</v>
-      </c>
-      <c r="I6">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="J6">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>5.774442278466667</v>
+        <v>1.378189501027778</v>
       </c>
       <c r="R6">
-        <v>51.9699805062</v>
+        <v>12.40370550925</v>
       </c>
       <c r="S6">
-        <v>0.004353543054534105</v>
+        <v>0.001192047478896934</v>
       </c>
       <c r="T6">
-        <v>0.004353543054534104</v>
+        <v>0.001192047478896934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>85.92419125847823</v>
+        <v>121.5989386292889</v>
       </c>
       <c r="R7">
-        <v>773.317721326304</v>
+        <v>1094.3904476636</v>
       </c>
       <c r="S7">
-        <v>0.06478109019545675</v>
+        <v>0.105175455277732</v>
       </c>
       <c r="T7">
-        <v>0.06478109019545673</v>
+        <v>0.1051754552777319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
         <v>454.0988537023396</v>
@@ -948,10 +948,10 @@
         <v>4086.889683321057</v>
       </c>
       <c r="S8">
-        <v>0.3423601475730174</v>
+        <v>0.3927670275547624</v>
       </c>
       <c r="T8">
-        <v>0.3423601475730174</v>
+        <v>0.3927670275547623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>117.2322073711502</v>
+        <v>18.27610539138844</v>
       </c>
       <c r="R9">
-        <v>1055.089866340352</v>
+        <v>164.484948522496</v>
       </c>
       <c r="S9">
-        <v>0.08838523922415881</v>
+        <v>0.01580768489355961</v>
       </c>
       <c r="T9">
-        <v>0.08838523922415879</v>
+        <v>0.0158076848935596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>255.7225625099964</v>
+        <v>278.7564399992409</v>
       </c>
       <c r="R10">
-        <v>2301.503062589968</v>
+        <v>2508.807959993168</v>
       </c>
       <c r="S10">
-        <v>0.1927976992781858</v>
+        <v>0.2411068371073609</v>
       </c>
       <c r="T10">
-        <v>0.1927976992781857</v>
+        <v>0.2411068371073609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>96.11551675317334</v>
+        <v>18.48284456235556</v>
       </c>
       <c r="R11">
-        <v>865.03965077856</v>
+        <v>166.3456010612</v>
       </c>
       <c r="S11">
-        <v>0.0724646676189214</v>
+        <v>0.01598650130984837</v>
       </c>
       <c r="T11">
-        <v>0.07246466761892138</v>
+        <v>0.01598650130984837</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>8.858595482728443</v>
+        <v>6.607006445266666</v>
       </c>
       <c r="R12">
-        <v>79.72735934455599</v>
+        <v>59.4630580074</v>
       </c>
       <c r="S12">
-        <v>0.006678788180215461</v>
+        <v>0.005714646186364455</v>
       </c>
       <c r="T12">
-        <v>0.006678788180215459</v>
+        <v>0.005714646186364454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>46.81659489838711</v>
+        <v>24.67319276812266</v>
       </c>
       <c r="R13">
-        <v>421.349354085484</v>
+        <v>222.058734913104</v>
       </c>
       <c r="S13">
-        <v>0.03529657960507511</v>
+        <v>0.02134076425168318</v>
       </c>
       <c r="T13">
-        <v>0.0352965796050751</v>
+        <v>0.02134076425168318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>12.08638321103644</v>
+        <v>0.9930213822293331</v>
       </c>
       <c r="R14">
-        <v>108.777448899328</v>
+        <v>8.937192440063999</v>
       </c>
       <c r="S14">
-        <v>0.009112324125061227</v>
+        <v>0.0008589012137260263</v>
       </c>
       <c r="T14">
-        <v>0.009112324125061225</v>
+        <v>0.0008589012137260262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>26.36443478726688</v>
+        <v>15.14606637603467</v>
       </c>
       <c r="R15">
-        <v>237.2799130854019</v>
+        <v>136.314597384312</v>
       </c>
       <c r="S15">
-        <v>0.01987701953188476</v>
+        <v>0.01310039746006876</v>
       </c>
       <c r="T15">
-        <v>0.01987701953188476</v>
+        <v>0.01310039746006876</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>9.909298767426666</v>
+        <v>1.004254432866666</v>
       </c>
       <c r="R16">
-        <v>89.18368890683999</v>
+        <v>9.038289895799998</v>
       </c>
       <c r="S16">
-        <v>0.00747094814422306</v>
+        <v>0.0008686170979948942</v>
       </c>
       <c r="T16">
-        <v>0.007470948144223059</v>
+        <v>0.0008686170979948942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>6.845124321642444</v>
+        <v>14.51536428582778</v>
       </c>
       <c r="R17">
-        <v>61.60611889478199</v>
+        <v>130.63827857245</v>
       </c>
       <c r="S17">
-        <v>0.00516076566546304</v>
+        <v>0.01255487970942165</v>
       </c>
       <c r="T17">
-        <v>0.005160765665463039</v>
+        <v>0.01255487970942165</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>36.17564579173312</v>
+        <v>54.20614980333912</v>
       </c>
       <c r="R18">
-        <v>325.580812125598</v>
+        <v>487.855348230052</v>
       </c>
       <c r="S18">
-        <v>0.02727401606683057</v>
+        <v>0.04688491979193909</v>
       </c>
       <c r="T18">
-        <v>0.02727401606683057</v>
+        <v>0.04688491979193907</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>9.339267815068444</v>
+        <v>2.181633577336889</v>
       </c>
       <c r="R19">
-        <v>84.05341033561601</v>
+        <v>19.634702196032</v>
       </c>
       <c r="S19">
-        <v>0.007041182952394429</v>
+        <v>0.001886976213214471</v>
       </c>
       <c r="T19">
-        <v>0.007041182952394427</v>
+        <v>0.00188697621321447</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>20.37205944672989</v>
+        <v>33.27538315071178</v>
       </c>
       <c r="R20">
-        <v>183.348535020569</v>
+        <v>299.478448356406</v>
       </c>
       <c r="S20">
-        <v>0.01535916953254532</v>
+        <v>0.02878111940669617</v>
       </c>
       <c r="T20">
-        <v>0.01535916953254531</v>
+        <v>0.02878111940669616</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>7.657013138886667</v>
+        <v>2.206312200461111</v>
       </c>
       <c r="R21">
-        <v>68.91311824998</v>
+        <v>19.85680980415</v>
       </c>
       <c r="S21">
-        <v>0.005772875502381535</v>
+        <v>0.00190832167438359</v>
       </c>
       <c r="T21">
-        <v>0.005772875502381533</v>
+        <v>0.00190832167438359</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N22">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q22">
-        <v>6.150841709029111</v>
+        <v>5.959451839425002</v>
       </c>
       <c r="R22">
-        <v>55.357575381262</v>
+        <v>53.63506655482501</v>
       </c>
       <c r="S22">
-        <v>0.004637323036674796</v>
+        <v>0.005154552066676268</v>
       </c>
       <c r="T22">
-        <v>0.004637323036674795</v>
+        <v>0.005154552066676267</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q23">
-        <v>32.50644700247978</v>
+        <v>22.254966034098</v>
       </c>
       <c r="R23">
-        <v>292.558023022318</v>
+        <v>200.294694306882</v>
       </c>
       <c r="S23">
-        <v>0.02450768572108842</v>
+        <v>0.01924914979696157</v>
       </c>
       <c r="T23">
-        <v>0.02450768572108842</v>
+        <v>0.01924914979696156</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N24">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q24">
-        <v>8.392010913095111</v>
+        <v>0.8956950703680001</v>
       </c>
       <c r="R24">
-        <v>75.528098217856</v>
+        <v>8.061255633311999</v>
       </c>
       <c r="S24">
-        <v>0.006327014638369726</v>
+        <v>0.0007747200582331719</v>
       </c>
       <c r="T24">
-        <v>0.006327014638369725</v>
+        <v>0.0007747200582331717</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N25">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q25">
-        <v>18.30577606130322</v>
+        <v>13.661596045419</v>
       </c>
       <c r="R25">
-        <v>164.751984551729</v>
+        <v>122.954364408771</v>
       </c>
       <c r="S25">
-        <v>0.01380133013481353</v>
+        <v>0.01181642372946927</v>
       </c>
       <c r="T25">
-        <v>0.01380133013481353</v>
+        <v>0.01181642372946926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N26">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q26">
-        <v>6.880382819686666</v>
+        <v>0.9058271664750001</v>
       </c>
       <c r="R26">
-        <v>61.92344537717999</v>
+        <v>8.152444498275001</v>
       </c>
       <c r="S26">
-        <v>0.005187348213503417</v>
+        <v>0.0007834836858847276</v>
       </c>
       <c r="T26">
-        <v>0.005187348213503416</v>
+        <v>0.0007834836858847273</v>
       </c>
     </row>
   </sheetData>
